--- a/data/trans_orig/ED_ADU-Clase-trans_orig.xlsx
+++ b/data/trans_orig/ED_ADU-Clase-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>43.90724421840227</v>
+        <v>43.97207767453858</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>43.72445616953112</v>
+        <v>43.75175564427721</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45.68062467013616</v>
+        <v>45.65075825433159</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49.72822323116621</v>
+        <v>49.79131060528278</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>40.30566127574358</v>
+        <v>40.29305629227286</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>39.27609904345025</v>
+        <v>39.31377480551681</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>42.22754643205217</v>
+        <v>42.19965565704358</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>46.64061773648481</v>
+        <v>46.55041890596238</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>42.9918801661344</v>
+        <v>42.9064470994606</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>42.15348680063597</v>
+        <v>42.15127152014428</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44.66444494693242</v>
+        <v>44.60474743090489</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>48.7632694105212</v>
+        <v>48.65220772656268</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>46.64643997064834</v>
+        <v>46.69455320850684</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>46.62630021185558</v>
+        <v>46.77306558300591</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>48.72405220078086</v>
+        <v>48.75974633970331</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>52.58633045517033</v>
+        <v>52.63232158316418</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>43.6176004007972</v>
+        <v>43.68448144907732</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>42.4605026996672</v>
+        <v>42.54099578660622</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>45.52632869750095</v>
+        <v>45.61925400804876</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>49.38014935980544</v>
+        <v>49.18940275252834</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>45.13527148224914</v>
+        <v>44.99578367820386</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>44.39997749296528</v>
+        <v>44.40980375985602</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>46.95978466259664</v>
+        <v>46.82095356520315</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>50.65742654676488</v>
+        <v>50.63692721674406</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>43.32358868835284</v>
+        <v>43.56254521033311</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>44.35093299749396</v>
+        <v>44.4361984516434</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45.37649035937159</v>
+        <v>45.59308746091275</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>49.71536336432589</v>
+        <v>49.78248625143004</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>35.49497398038339</v>
+        <v>35.58972001911717</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>39.98425777977354</v>
+        <v>39.95458568984568</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>41.73534073085424</v>
+        <v>41.85000503507566</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>45.63549174645765</v>
+        <v>45.48833974768002</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>39.90836463456476</v>
+        <v>39.87818975589472</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>42.86652106986161</v>
+        <v>42.84631302911893</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>44.14008085959151</v>
+        <v>43.98782610319624</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>48.22991381320357</v>
+        <v>48.3076421234008</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>46.75772305807268</v>
+        <v>46.77502492139175</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>47.59291487729643</v>
+        <v>47.74882967571201</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>48.45146263337431</v>
+        <v>48.54059717800283</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>52.9300541217039</v>
+        <v>53.06187398336008</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>38.30057234962218</v>
+        <v>38.41743433003472</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>42.71686040149424</v>
+        <v>42.86595841868659</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>44.51133728352242</v>
+        <v>44.66076564461321</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>48.2330089889392</v>
+        <v>48.17017280271611</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>42.25144222616703</v>
+        <v>42.12833733154395</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>45.1208332580448</v>
+        <v>45.12625578771152</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>46.31021417957162</v>
+        <v>46.19711344597735</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>50.32343247087658</v>
+        <v>50.32961634032417</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>50.92671848723278</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52.06153799944768</v>
+        <v>52.06153799944767</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>45.17299939528657</v>
@@ -953,7 +953,7 @@
         <v>51.57600637401284</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>55.05798282358175</v>
+        <v>55.05798282358177</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>45.04933340963217</v>
@@ -965,7 +965,7 @@
         <v>51.08348564311113</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>52.91393914863362</v>
+        <v>52.91393914863364</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>43.58483359255483</v>
+        <v>43.60497304267651</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>46.0982795814711</v>
+        <v>46.12208509257374</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>49.51268730452367</v>
+        <v>49.55729178862182</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>50.34926728646693</v>
+        <v>50.51290978236789</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>42.81787865544702</v>
+        <v>42.91015045758523</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>46.23369698379375</v>
+        <v>46.13675341532235</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>48.56922880521502</v>
+        <v>48.62352524074585</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>52.39435367999258</v>
+        <v>52.3921759750293</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>43.90707184270543</v>
+        <v>43.85826705425794</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>46.66102845785586</v>
+        <v>46.54052161974721</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>49.8555659496405</v>
+        <v>49.80574108337097</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>51.61477445827584</v>
+        <v>51.57406318239548</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>46.22688878494087</v>
+        <v>46.29362691095645</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>48.86548935781309</v>
+        <v>48.87257090362969</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>52.34765527422615</v>
+        <v>52.18536590815258</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53.44226355699065</v>
+        <v>53.57223470368427</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>47.73271079579738</v>
+        <v>47.53585312761695</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>50.58855460480743</v>
+        <v>50.38444206485742</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>54.63246237497219</v>
+        <v>54.52819607337856</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>57.28000528254212</v>
+        <v>57.55445201425256</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>46.22429465431267</v>
+        <v>46.18260514066397</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48.93540862070302</v>
+        <v>48.89734473378046</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>52.45152113258948</v>
+        <v>52.34949038124196</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>54.2028867993221</v>
+        <v>54.20217936657968</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>45.86148484098847</v>
+        <v>45.74361596782841</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>46.38480443055976</v>
+        <v>46.535615790089</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>47.32986007875868</v>
+        <v>47.348504971121</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>48.96881966710102</v>
+        <v>49.00031641843191</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>41.12950935885234</v>
+        <v>41.07503974363902</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>40.0567313924463</v>
+        <v>39.94947623445257</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>41.95799442508941</v>
+        <v>41.73736897265812</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>45.6872164276333</v>
+        <v>45.71648960527558</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>44.47512578824881</v>
+        <v>44.48873594378161</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>44.08534336095995</v>
+        <v>44.11262821612168</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45.33478424960985</v>
+        <v>45.36599683243808</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>47.85220008480967</v>
+        <v>47.87780622643406</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>47.79706844765355</v>
+        <v>47.84178275365438</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>48.5511635746083</v>
+        <v>48.68017735468072</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>49.13428708059077</v>
+        <v>49.25676854942777</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>51.50058561478193</v>
+        <v>51.55476438874651</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>43.68359819514924</v>
+        <v>43.44269837365666</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>42.2415862642691</v>
+        <v>42.1630289878829</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>44.15998736592032</v>
+        <v>44.11638207296862</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>47.60624949315146</v>
+        <v>47.63267241199687</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>46.01609711675717</v>
+        <v>46.02954352298406</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>45.66031785148338</v>
+        <v>45.71578655428471</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>46.73844662283366</v>
+        <v>46.73868293353706</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>49.49736787338344</v>
+        <v>49.54751357067461</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>48.00770135485857</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48.51768814879814</v>
+        <v>48.51768814879813</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>46.36228113181344</v>
@@ -1225,7 +1225,7 @@
         <v>51.00250893471461</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>53.68063289365475</v>
+        <v>53.68063289365474</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>45.27967499523102</v>
@@ -1237,7 +1237,7 @@
         <v>49.63461853226519</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>51.58431025148362</v>
+        <v>51.58431025148361</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>41.41784844587478</v>
+        <v>41.68271971937747</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>44.85143410969678</v>
+        <v>44.96856782227773</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>46.53713878304215</v>
+        <v>46.47060565975642</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>46.86497039619855</v>
+        <v>46.87322281830807</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>44.95639189127778</v>
+        <v>45.01100396851589</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>49.28912733288682</v>
+        <v>49.2110894282853</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>49.75740352554504</v>
+        <v>49.76316152018298</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>52.52737907640023</v>
+        <v>52.43740886800558</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>44.17640465854886</v>
+        <v>44.04860414244956</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>47.86177596954204</v>
+        <v>47.90153056737505</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>48.64874563754761</v>
+        <v>48.75120222579268</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>50.51106123692841</v>
+        <v>50.50492511609063</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>45.44985104188262</v>
+        <v>45.64708798561287</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>48.30820124058427</v>
+        <v>48.21007374496052</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>49.62762705439323</v>
+        <v>49.40636143611496</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>50.12967554331825</v>
+        <v>50.15949933196273</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>47.83699110945528</v>
+        <v>47.8625876170621</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>51.91521858664024</v>
+        <v>51.83702743027881</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>52.34067989654497</v>
+        <v>52.17006999591842</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>54.71102556270379</v>
+        <v>54.77053631193549</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>46.54372266588826</v>
+        <v>46.44193043249985</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>49.89824154499105</v>
+        <v>49.96498571913224</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>50.58936603132807</v>
+        <v>50.61487511024376</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>52.47486142807738</v>
+        <v>52.4990701150439</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>53.05301251236811</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>53.46391663036886</v>
+        <v>53.46391663036887</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>45.41408497767424</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>20.20770980885876</v>
+        <v>20.34656718726696</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>20.18477572228545</v>
+        <v>20.09448004347901</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20.48342256151894</v>
+        <v>20.44771151993064</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21.41847555690421</v>
+        <v>21.45113008427291</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>49.93028531738058</v>
+        <v>50.00199781374889</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>50.68806971341115</v>
+        <v>50.46645682686987</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>51.73056182516098</v>
+        <v>51.58491168208941</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>51.50984758289712</v>
+        <v>51.57436096080775</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>44.26847592199053</v>
+        <v>44.15028555874363</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>44.65331473536541</v>
+        <v>44.59664875228543</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>44.92043559555129</v>
+        <v>44.92541286538998</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>44.7662524644972</v>
+        <v>44.82077519051353</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>22.32489850942071</v>
+        <v>22.48457841182929</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>22.03799113349901</v>
+        <v>22.11339357617355</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>22.03104590121486</v>
+        <v>22.01623329825154</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>24.36973866050797</v>
+        <v>24.1875552750895</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>52.29270436935239</v>
+        <v>52.32189398844391</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>53.34975272374158</v>
+        <v>53.30112379701821</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>54.66115646175137</v>
+        <v>54.42911523594204</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>55.2603186108493</v>
+        <v>55.3514574178981</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>46.59979170851406</v>
+        <v>46.52705583940948</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>47.20849729434183</v>
+        <v>47.34712975143592</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>47.61716456057658</v>
+        <v>47.78143634322725</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>48.3877576609344</v>
+        <v>48.61493414143297</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>42.78110704643111</v>
+        <v>42.8386272520298</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>44.16375592931635</v>
+        <v>44.16230331312215</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>45.40786858220061</v>
+        <v>45.4480777677283</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>47.97861174056376</v>
+        <v>47.92817330217051</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>45.17037815809831</v>
+        <v>45.19178928995371</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>46.39248539239606</v>
+        <v>46.43022908953289</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>47.59806511261405</v>
+        <v>47.59778937254078</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>49.87587301591455</v>
+        <v>49.81561844904287</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>44.15954203448719</v>
+        <v>44.18305791020297</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>45.45815966255388</v>
+        <v>45.46015891896437</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>46.70891528627775</v>
+        <v>46.70067432238731</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>49.13114711267072</v>
+        <v>49.11549879602198</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>44.00275617910176</v>
+        <v>44.04139371657065</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>45.41173170006945</v>
+        <v>45.39482075519933</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>46.623556898953</v>
+        <v>46.6374807951172</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>49.40330038386922</v>
+        <v>49.40123755334435</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>46.40990010708706</v>
+        <v>46.42016087085402</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>47.65476715219366</v>
+        <v>47.69307614915693</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>48.89869093520976</v>
+        <v>48.9289634361152</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>51.07954233220206</v>
+        <v>51.09025780657693</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>45.05757186420225</v>
+        <v>45.0262382090933</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>46.38318114489073</v>
+        <v>46.38608483690641</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>47.59515487825487</v>
+        <v>47.61482302864778</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>50.06715040637413</v>
+        <v>50.08850509774163</v>
       </c>
     </row>
     <row r="25">
